--- a/partsList.xlsx
+++ b/partsList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Quant.</t>
   </si>
@@ -50,6 +50,33 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.botnroll.com/pt/luz-imagem/2011-sensor-de-cor-tcs3200-ws-.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.botnroll.com/pt/controladores/3363-m-dulo-driver-motores-l298n.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCRT5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.botnroll.com/pt/infravermelhos/2585-seguidor-de-linha-c-3-leitores-infravermelhos-tcrt5000.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB6612fng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.botnroll.com/pt/controladores/2838-driver-para-2-motores-dc-at-1-2a-tb6612fng-gravity.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver Motor DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.botnroll.com/pt/infravermelhos/2586-seguidor-de-linha-c-5-sensores-ir-ws.html</t>
   </si>
 </sst>
 </file>
@@ -64,6 +91,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,6 +113,7 @@
       <color rgb="FF000000"/>
       <name val="Mangal"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +157,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -153,15 +184,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A9:C13"/>
+  <dimension ref="A9:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="87.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.94"/>
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -214,6 +246,53 @@
       </c>
       <c r="C13" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
